--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168630.959229694</v>
+        <v>164449.2486575559</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33937088.13219456</v>
+        <v>33937088.13219457</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6710378.753666297</v>
+        <v>6710378.753666298</v>
       </c>
     </row>
     <row r="9">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>35.88873212146862</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1141,10 +1141,10 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>98.08491502112344</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.18125311796774</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>119.0839105424605</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>119.0839105424605</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1223,7 +1223,7 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>86.88034699022857</v>
+        <v>50.34643644776907</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>8.665287392207562</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>82.6621924374279</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616409</v>
+        <v>13.56162857616407</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>119.0839105424605</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="U10" t="n">
-        <v>119.0839105424605</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>119.0839105424605</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="W10" t="n">
-        <v>91.3274798296351</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>119.0839105424609</v>
       </c>
     </row>
     <row r="11">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>321.2774740948088</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>187.53351327615</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T12" t="n">
         <v>124.8306395731037</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>17.7512391430302</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>97.59530767934608</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1609,7 +1609,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>237.8187742085234</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>136.7460529141007</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
@@ -1669,13 +1669,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1776,13 +1776,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>60.07073011995551</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>156.0367594981243</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>104.838601661905</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>186.2590747244967</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>55.96684102370093</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>17.7512391430302</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2086,7 +2086,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2095,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>321.9370827829808</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>345.9161302564327</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>60.07073011995506</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>7.722803593220153</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2329,10 +2329,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>386.5350575123534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>170.8454278428345</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>98.4247264628637</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2493,10 +2493,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
         <v>275.6027656317444</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>155.9421478677847</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>163.9844059346234</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
@@ -2614,7 +2614,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>93.53818910684694</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T27" t="n">
         <v>124.8306395731037</v>
@@ -2715,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>55.96684102370138</v>
+        <v>128.0010715400079</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2727,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6027656317444</v>
@@ -2775,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>149.6157531058528</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>330.7211180815046</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>132.697824295722</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2967,7 +2967,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>7.722803593220153</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>65.45709821928062</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>248.9395529139697</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3189,16 +3189,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>168.4424908234483</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>154.9460495062414</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>361.9987888703328</v>
+        <v>321.937082782981</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
@@ -3426,19 +3426,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>67.81305593795599</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>49.34995949258573</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3517,7 +3517,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>109.554047018501</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>185.6587756758346</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3663,22 +3663,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>132.6978242957215</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>86.38976318987859</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>149.6157531058518</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>109.5540470185009</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>92.89120653891784</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>86.38976318987859</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>347.3207662723228</v>
       </c>
       <c r="G44" t="n">
-        <v>149.6157531058519</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>67.81305593795506</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4146,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4194,13 +4194,13 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>181.8996817528541</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.4008596936177</v>
+        <v>225.5192815317398</v>
       </c>
       <c r="C8" t="n">
-        <v>164.298790917445</v>
+        <v>191.4172127555671</v>
       </c>
       <c r="D8" t="n">
-        <v>132.4294101322936</v>
+        <v>159.5478319704157</v>
       </c>
       <c r="E8" t="n">
-        <v>33.35373839378505</v>
+        <v>129.8134911691149</v>
       </c>
       <c r="F8" t="n">
-        <v>9.526712843396842</v>
+        <v>9.52671284339687</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396842</v>
+        <v>9.52671284339687</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396842</v>
+        <v>9.52671284339687</v>
       </c>
       <c r="I8" t="n">
         <v>23.57954741585572</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558022</v>
+        <v>55.41632306558032</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318067</v>
+        <v>103.131396931807</v>
       </c>
       <c r="L8" t="n">
-        <v>162.326165318309</v>
+        <v>162.3261653183094</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590924</v>
+        <v>228.191750759093</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326572</v>
+        <v>295.123110232658</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336411</v>
+        <v>358.3244950336422</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455656</v>
+        <v>412.2654147455668</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990244996</v>
+        <v>452.7727990245011</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698421</v>
+        <v>476.3356421698435</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698421</v>
+        <v>401.4050834648256</v>
       </c>
       <c r="T8" t="n">
-        <v>476.3356421698421</v>
+        <v>401.4050834648256</v>
       </c>
       <c r="U8" t="n">
-        <v>476.3356421698421</v>
+        <v>401.4050834648256</v>
       </c>
       <c r="V8" t="n">
-        <v>476.3356421698421</v>
+        <v>401.4050834648256</v>
       </c>
       <c r="W8" t="n">
-        <v>356.0488638441244</v>
+        <v>281.1183051391075</v>
       </c>
       <c r="X8" t="n">
-        <v>340.9468044638391</v>
+        <v>266.0162457588223</v>
       </c>
       <c r="Y8" t="n">
-        <v>220.6600261381214</v>
+        <v>261.7705260988798</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>388.5777159170859</v>
+        <v>305.1938775332476</v>
       </c>
       <c r="C9" t="n">
-        <v>282.1212547537282</v>
+        <v>198.7374163698899</v>
       </c>
       <c r="D9" t="n">
-        <v>187.0309659002815</v>
+        <v>103.6471275164431</v>
       </c>
       <c r="E9" t="n">
-        <v>92.91055122723522</v>
+        <v>9.52671284339687</v>
       </c>
       <c r="F9" t="n">
-        <v>9.526712843396842</v>
+        <v>9.52671284339687</v>
       </c>
       <c r="G9" t="n">
-        <v>9.526712843396842</v>
+        <v>9.52671284339687</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396842</v>
+        <v>9.52671284339687</v>
       </c>
       <c r="I9" t="n">
-        <v>16.43678475114677</v>
+        <v>42.50045791160442</v>
       </c>
       <c r="J9" t="n">
-        <v>134.3298561881827</v>
+        <v>61.46222338483267</v>
       </c>
       <c r="K9" t="n">
-        <v>166.7385335674985</v>
+        <v>179.3552948218689</v>
       </c>
       <c r="L9" t="n">
-        <v>210.3159997831877</v>
+        <v>249.1271962594014</v>
       </c>
       <c r="M9" t="n">
-        <v>261.1688474406034</v>
+        <v>299.9800439168173</v>
       </c>
       <c r="N9" t="n">
-        <v>313.3676186581401</v>
+        <v>352.1788151343542</v>
       </c>
       <c r="O9" t="n">
-        <v>361.1192964644726</v>
+        <v>399.9304929406869</v>
       </c>
       <c r="P9" t="n">
-        <v>399.4442277663346</v>
+        <v>438.2554242425489</v>
       </c>
       <c r="Q9" t="n">
-        <v>425.0634293973096</v>
+        <v>463.8746258735241</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698421</v>
+        <v>476.3356421698435</v>
       </c>
       <c r="S9" t="n">
-        <v>476.3356421698421</v>
+        <v>476.3356421698435</v>
       </c>
       <c r="T9" t="n">
-        <v>476.3356421698421</v>
+        <v>476.3356421698435</v>
       </c>
       <c r="U9" t="n">
-        <v>476.3356421698421</v>
+        <v>476.3356421698435</v>
       </c>
       <c r="V9" t="n">
-        <v>476.3356421698421</v>
+        <v>356.0488638441254</v>
       </c>
       <c r="W9" t="n">
-        <v>476.3356421698421</v>
+        <v>356.0488638441254</v>
       </c>
       <c r="X9" t="n">
-        <v>388.5777159170859</v>
+        <v>305.1938775332476</v>
       </c>
       <c r="Y9" t="n">
-        <v>388.5777159170859</v>
+        <v>305.1938775332476</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.526712843396842</v>
+        <v>101.7766924692913</v>
       </c>
       <c r="C10" t="n">
-        <v>9.526712843396842</v>
+        <v>101.7766924692913</v>
       </c>
       <c r="D10" t="n">
-        <v>9.526712843396842</v>
+        <v>101.7766924692913</v>
       </c>
       <c r="E10" t="n">
-        <v>9.526712843396842</v>
+        <v>101.7766924692913</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843396842</v>
+        <v>93.02387692160687</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396842</v>
+        <v>93.02387692160687</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396842</v>
+        <v>93.02387692160687</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396842</v>
+        <v>9.52671284339687</v>
       </c>
       <c r="J10" t="n">
-        <v>21.42271513642502</v>
+        <v>21.42271513642509</v>
       </c>
       <c r="K10" t="n">
-        <v>40.97150121137683</v>
+        <v>40.97150121137696</v>
       </c>
       <c r="L10" t="n">
-        <v>65.98721697583395</v>
+        <v>72.49803629506124</v>
       </c>
       <c r="M10" t="n">
-        <v>183.8802884128698</v>
+        <v>98.87360110651626</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7733598499058</v>
+        <v>216.7666725435525</v>
       </c>
       <c r="O10" t="n">
-        <v>419.6664312869416</v>
+        <v>240.549499295771</v>
       </c>
       <c r="P10" t="n">
-        <v>440.0167481837459</v>
+        <v>358.4425707328073</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698421</v>
+        <v>476.3356421698435</v>
       </c>
       <c r="R10" t="n">
-        <v>462.637027446444</v>
+        <v>462.6370274464455</v>
       </c>
       <c r="S10" t="n">
-        <v>462.637027446444</v>
+        <v>462.6370274464455</v>
       </c>
       <c r="T10" t="n">
-        <v>342.3502491207263</v>
+        <v>342.3502491207274</v>
       </c>
       <c r="U10" t="n">
-        <v>222.0634707950086</v>
+        <v>342.3502491207274</v>
       </c>
       <c r="V10" t="n">
-        <v>101.7766924692909</v>
+        <v>222.0634707950094</v>
       </c>
       <c r="W10" t="n">
-        <v>9.526712843396842</v>
+        <v>222.0634707950094</v>
       </c>
       <c r="X10" t="n">
-        <v>9.526712843396842</v>
+        <v>222.0634707950094</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.526712843396842</v>
+        <v>101.7766924692913</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>316.9281030050443</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="C11" t="n">
-        <v>316.9281030050443</v>
+        <v>1476.86328025699</v>
       </c>
       <c r="D11" t="n">
-        <v>316.9281030050443</v>
+        <v>1040.953495431435</v>
       </c>
       <c r="E11" t="n">
-        <v>316.9281030050443</v>
+        <v>1040.953495431435</v>
       </c>
       <c r="F11" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G11" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L11" t="n">
         <v>805.4408022867023</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2170.899786259707</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>1911.82909478122</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V11" t="n">
-        <v>1549.212144715047</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W11" t="n">
-        <v>1144.35669012608</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="X11" t="n">
-        <v>725.214226705391</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="Y11" t="n">
-        <v>316.9281030050443</v>
+        <v>1915.005753073567</v>
       </c>
     </row>
     <row r="12">
@@ -5099,43 +5099,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>896.8524940391952</v>
+        <v>750.041858240633</v>
       </c>
       <c r="C13" t="n">
-        <v>724.2907825224202</v>
+        <v>577.480146723858</v>
       </c>
       <c r="D13" t="n">
-        <v>558.4127897239429</v>
+        <v>411.6021539253807</v>
       </c>
       <c r="E13" t="n">
-        <v>388.6547859746801</v>
+        <v>241.8441501761179</v>
       </c>
       <c r="F13" t="n">
-        <v>211.9477319364363</v>
+        <v>65.13709613787412</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>488.1941452900671</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>1030.274828676326</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>1160.879221014856</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1288.378132818745</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O13" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,7 +5226,7 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
         <v>1973.653814855378</v>
@@ -5235,16 +5235,16 @@
         <v>1973.653814855378</v>
       </c>
       <c r="V13" t="n">
-        <v>1686.698306725809</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W13" t="n">
         <v>1414.6719023121</v>
       </c>
       <c r="X13" t="n">
-        <v>1316.090783444074</v>
+        <v>1169.280147645512</v>
       </c>
       <c r="Y13" t="n">
-        <v>1088.671112758182</v>
+        <v>941.8604769596202</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>755.070575821621</v>
+        <v>287.4275355979682</v>
       </c>
       <c r="C14" t="n">
-        <v>316.9281030050443</v>
+        <v>287.4275355979682</v>
       </c>
       <c r="D14" t="n">
-        <v>316.9281030050443</v>
+        <v>287.4275355979682</v>
       </c>
       <c r="E14" t="n">
-        <v>316.9281030050443</v>
+        <v>287.4275355979682</v>
       </c>
       <c r="F14" t="n">
-        <v>316.9281030050443</v>
+        <v>287.4275355979682</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2222.200251271878</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>1963.129559793392</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V14" t="n">
-        <v>1600.512609727218</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W14" t="n">
-        <v>1600.512609727218</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X14" t="n">
-        <v>1181.370146306529</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="Y14" t="n">
-        <v>1181.370146306529</v>
+        <v>713.727106082876</v>
       </c>
     </row>
     <row r="15">
@@ -5336,25 +5336,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5363,10 +5363,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>555.4042596134699</v>
+        <v>864.4553742723976</v>
       </c>
       <c r="C16" t="n">
-        <v>382.8425480966948</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D16" t="n">
-        <v>216.9645552982175</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E16" t="n">
-        <v>47.20655154895474</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
@@ -5451,10 +5451,10 @@
         <v>1539.854607180195</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2299.650072276065</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
-        <v>2057.402848179471</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1779.016216228214</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V16" t="n">
-        <v>1492.060708098645</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W16" t="n">
-        <v>1220.034303684936</v>
+        <v>1529.085418343864</v>
       </c>
       <c r="X16" t="n">
-        <v>974.6425490183487</v>
+        <v>1283.693663677277</v>
       </c>
       <c r="Y16" t="n">
-        <v>747.222878332457</v>
+        <v>1056.273992991385</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1344.758510807007</v>
+        <v>1025.021346643504</v>
       </c>
       <c r="C17" t="n">
-        <v>1344.758510807007</v>
+        <v>586.8788738269272</v>
       </c>
       <c r="D17" t="n">
-        <v>908.8487259814518</v>
+        <v>586.8788738269272</v>
       </c>
       <c r="E17" t="n">
-        <v>475.073981139747</v>
+        <v>153.1041289852224</v>
       </c>
       <c r="F17" t="n">
         <v>47.20655154895473</v>
@@ -5512,16 +5512,16 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W17" t="n">
-        <v>2172.187097928043</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="X17" t="n">
-        <v>1753.044634507354</v>
+        <v>1025.021346643504</v>
       </c>
       <c r="Y17" t="n">
-        <v>1344.758510807007</v>
+        <v>1025.021346643504</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>616.0817647851416</v>
+        <v>750.041858240633</v>
       </c>
       <c r="C19" t="n">
-        <v>559.5496021349386</v>
+        <v>577.480146723858</v>
       </c>
       <c r="D19" t="n">
-        <v>393.6716093364613</v>
+        <v>411.6021539253807</v>
       </c>
       <c r="E19" t="n">
-        <v>223.9136055871985</v>
+        <v>241.8441501761179</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895473</v>
+        <v>65.13709613787412</v>
       </c>
       <c r="G19" t="n">
         <v>47.20655154895473</v>
@@ -5673,25 +5673,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>481.9462364092377</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.127311827552</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N19" t="n">
-        <v>1635.885026789086</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270316</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.711808856608</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.320054190021</v>
+        <v>1169.280147645512</v>
       </c>
       <c r="Y19" t="n">
-        <v>807.9003835041287</v>
+        <v>941.8604769596202</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1346.991198798029</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="C20" t="n">
-        <v>908.8487259814518</v>
+        <v>1669.947483315069</v>
       </c>
       <c r="D20" t="n">
-        <v>908.8487259814518</v>
+        <v>1234.037698489513</v>
       </c>
       <c r="E20" t="n">
-        <v>475.073981139747</v>
+        <v>800.2629536478084</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895473</v>
+        <v>372.3955240570162</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
         <v>1775.969506973259</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2101.256885969251</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V20" t="n">
-        <v>1751.846653386995</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W20" t="n">
-        <v>1346.991198798029</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X20" t="n">
-        <v>1346.991198798029</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y20" t="n">
-        <v>1346.991198798029</v>
+        <v>2108.089956131646</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L21" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M21" t="n">
-        <v>1487.064164512932</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N21" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P21" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q21" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R21" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S21" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T21" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U21" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V21" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>555.4042596134699</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C22" t="n">
-        <v>382.8425480966948</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D22" t="n">
-        <v>216.9645552982175</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E22" t="n">
-        <v>47.20655154895473</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F22" t="n">
-        <v>47.20655154895473</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
@@ -5925,7 +5925,7 @@
         <v>1364.434443083199</v>
       </c>
       <c r="O22" t="n">
-        <v>1901.869573656742</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P22" t="n">
         <v>2105.896438675981</v>
@@ -5934,28 +5934,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2299.650072276065</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
-        <v>2057.402848179471</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1779.016216228214</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V22" t="n">
-        <v>1492.060708098645</v>
+        <v>1965.853003145054</v>
       </c>
       <c r="W22" t="n">
-        <v>1220.034303684936</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X22" t="n">
-        <v>974.6425490183487</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y22" t="n">
-        <v>747.222878332457</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1782.900983623584</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="C23" t="n">
-        <v>1344.758510807007</v>
+        <v>1307.330533248895</v>
       </c>
       <c r="D23" t="n">
-        <v>908.8487259814518</v>
+        <v>871.4207484233398</v>
       </c>
       <c r="E23" t="n">
-        <v>475.073981139747</v>
+        <v>437.6460035816349</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895474</v>
+        <v>437.6460035816349</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2187.756438212551</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V23" t="n">
-        <v>2187.756438212551</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W23" t="n">
-        <v>1782.900983623584</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="X23" t="n">
-        <v>1782.900983623584</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="Y23" t="n">
-        <v>1782.900983623584</v>
+        <v>1745.473006065472</v>
       </c>
     </row>
     <row r="24">
@@ -6047,46 +6047,46 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M24" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P24" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q24" t="n">
         <v>1614.947661807679</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1029.196554659879</v>
+        <v>717.0469809559636</v>
       </c>
       <c r="C25" t="n">
-        <v>856.6348431431041</v>
+        <v>717.0469809559636</v>
       </c>
       <c r="D25" t="n">
-        <v>690.7568503446269</v>
+        <v>551.1689881574863</v>
       </c>
       <c r="E25" t="n">
-        <v>520.9988465953642</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F25" t="n">
-        <v>344.2917925571204</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G25" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K25" t="n">
-        <v>477.6707703898317</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>1019.751453776091</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M25" t="n">
-        <v>1150.35584611462</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N25" t="n">
-        <v>1277.854757918509</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O25" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P25" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S25" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T25" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>1937.514407000715</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V25" t="n">
-        <v>1650.558898871145</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W25" t="n">
-        <v>1378.532494457437</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X25" t="n">
-        <v>1378.532494457437</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y25" t="n">
-        <v>1221.015173378866</v>
+        <v>908.8655996749508</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1486.402314586987</v>
+        <v>1754.536245353315</v>
       </c>
       <c r="C26" t="n">
-        <v>1048.25984177041</v>
+        <v>1316.393772536738</v>
       </c>
       <c r="D26" t="n">
-        <v>612.3500569448547</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E26" t="n">
-        <v>612.3500569448547</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F26" t="n">
-        <v>612.3500569448547</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G26" t="n">
-        <v>212.8473656243319</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L26" t="n">
         <v>805.4408022867023</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6262,16 +6262,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V26" t="n">
-        <v>1486.402314586987</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W26" t="n">
-        <v>1486.402314586987</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X26" t="n">
-        <v>1486.402314586987</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y26" t="n">
-        <v>1486.402314586987</v>
+        <v>1754.536245353315</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M27" t="n">
-        <v>803.3877032987881</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O27" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P27" t="n">
         <v>1488.088567599445</v>
@@ -6344,13 +6344,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>616.081764785142</v>
+        <v>985.9288547996778</v>
       </c>
       <c r="C28" t="n">
-        <v>559.5496021349386</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D28" t="n">
-        <v>393.6716093364613</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E28" t="n">
-        <v>223.9136055871985</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>564.2504555545215</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L28" t="n">
-        <v>1106.331138940781</v>
+        <v>601.5415720081295</v>
       </c>
       <c r="M28" t="n">
-        <v>1236.93553127931</v>
+        <v>1185.722647426444</v>
       </c>
       <c r="N28" t="n">
-        <v>1364.4344430832</v>
+        <v>1755.480362387979</v>
       </c>
       <c r="O28" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P28" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T28" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U28" t="n">
-        <v>1839.693721399886</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V28" t="n">
-        <v>1552.738213270317</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.711808856609</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="X28" t="n">
-        <v>1035.320054190021</v>
+        <v>1405.167144204557</v>
       </c>
       <c r="Y28" t="n">
-        <v>807.9003835041292</v>
+        <v>1177.747473518665</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1934.028006962829</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="C29" t="n">
-        <v>1495.885534146253</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D29" t="n">
-        <v>1059.975749320697</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E29" t="n">
-        <v>626.2010044789922</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F29" t="n">
-        <v>198.3335748882</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I29" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867019</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M29" t="n">
         <v>1131.588690455489</v>
@@ -6487,28 +6487,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W29" t="n">
-        <v>2360.327577447737</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="X29" t="n">
-        <v>2360.327577447737</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="Y29" t="n">
-        <v>2360.327577447737</v>
+        <v>1152.340579151123</v>
       </c>
     </row>
     <row r="30">
@@ -6521,43 +6521,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M30" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P30" t="n">
         <v>1488.088567599445</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>858.3289888817353</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C31" t="n">
-        <v>724.2907825224202</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D31" t="n">
-        <v>558.4127897239429</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E31" t="n">
-        <v>388.6547859746801</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F31" t="n">
-        <v>211.9477319364363</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J31" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K31" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909393</v>
       </c>
       <c r="L31" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M31" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N31" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O31" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P31" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R31" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
-        <v>2360.327577447737</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>2081.94094549648</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.98543736691</v>
+        <v>1965.853003145054</v>
       </c>
       <c r="W31" t="n">
-        <v>1522.959032953202</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.567278286614</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y31" t="n">
-        <v>1050.147607600722</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1849.01926465316</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="C32" t="n">
-        <v>1410.876791836584</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="D32" t="n">
-        <v>974.9670070110283</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="E32" t="n">
-        <v>541.1922621693234</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F32" t="n">
-        <v>113.3248325785311</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G32" t="n">
-        <v>113.3248325785311</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228011</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S32" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T32" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U32" t="n">
-        <v>1849.01926465316</v>
+        <v>2068.407113810038</v>
       </c>
       <c r="V32" t="n">
-        <v>1849.01926465316</v>
+        <v>1705.790163743865</v>
       </c>
       <c r="W32" t="n">
-        <v>1849.01926465316</v>
+        <v>1300.934709154898</v>
       </c>
       <c r="X32" t="n">
-        <v>1849.01926465316</v>
+        <v>881.7922457342091</v>
       </c>
       <c r="Y32" t="n">
-        <v>1849.01926465316</v>
+        <v>473.5061220338625</v>
       </c>
     </row>
     <row r="33">
@@ -6758,31 +6758,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L33" t="n">
         <v>551.5786779960906</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>616.081764785142</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C34" t="n">
-        <v>445.9378346604467</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D34" t="n">
-        <v>280.0598418619694</v>
+        <v>443.520053268366</v>
       </c>
       <c r="E34" t="n">
-        <v>110.3018381127067</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F34" t="n">
         <v>110.3018381127067</v>
@@ -6855,37 +6855,37 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J34" t="n">
-        <v>116.6355901513736</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K34" t="n">
-        <v>488.1941452900674</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L34" t="n">
-        <v>1030.274828676326</v>
+        <v>862.0820538119935</v>
       </c>
       <c r="M34" t="n">
-        <v>1160.879221014856</v>
+        <v>992.686446150523</v>
       </c>
       <c r="N34" t="n">
-        <v>1288.378132818745</v>
+        <v>1120.185357954412</v>
       </c>
       <c r="O34" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P34" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R34" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T34" t="n">
         <v>2118.080353351143</v>
@@ -6894,16 +6894,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V34" t="n">
-        <v>1552.738213270317</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W34" t="n">
-        <v>1280.711808856609</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X34" t="n">
-        <v>1035.320054190021</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y34" t="n">
-        <v>807.9003835041292</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="35">
@@ -6925,64 +6925,64 @@
         <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T35" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V35" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W35" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X35" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y35" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
     </row>
     <row r="36">
@@ -6995,31 +6995,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L36" t="n">
         <v>551.5786779960906</v>
@@ -7071,58 +7071,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.081764785142</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C37" t="n">
-        <v>616.081764785142</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D37" t="n">
-        <v>450.2037719866647</v>
+        <v>443.520053268366</v>
       </c>
       <c r="E37" t="n">
-        <v>280.445768237402</v>
+        <v>273.7620495191033</v>
       </c>
       <c r="F37" t="n">
-        <v>211.9477319364363</v>
+        <v>97.0549954808595</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K37" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L37" t="n">
-        <v>744.992999204955</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M37" t="n">
-        <v>1329.17407462327</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N37" t="n">
-        <v>1456.672986427159</v>
+        <v>1288.378132818744</v>
       </c>
       <c r="O37" t="n">
-        <v>1994.108117000703</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T37" t="n">
         <v>2118.080353351143</v>
@@ -7131,16 +7131,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1552.738213270317</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.711808856609</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.320054190021</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.9003835041292</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1746.493890118551</v>
+        <v>1893.561637177625</v>
       </c>
       <c r="C38" t="n">
-        <v>1308.351417301975</v>
+        <v>1455.419164361049</v>
       </c>
       <c r="D38" t="n">
-        <v>1308.351417301975</v>
+        <v>1019.509379535493</v>
       </c>
       <c r="E38" t="n">
-        <v>874.5766724602698</v>
+        <v>585.7346346937884</v>
       </c>
       <c r="F38" t="n">
-        <v>446.7092428694776</v>
+        <v>157.8672051029961</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
         <v>2043.069798152528</v>
@@ -7198,28 +7198,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U38" t="n">
-        <v>2172.793460603459</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V38" t="n">
-        <v>2172.793460603459</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W38" t="n">
-        <v>2172.793460603459</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X38" t="n">
-        <v>2172.793460603459</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="Y38" t="n">
-        <v>2172.793460603459</v>
+        <v>2319.861207662533</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L39" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M39" t="n">
-        <v>1487.064164512932</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N39" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P39" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R39" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S39" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T39" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U39" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V39" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W39" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X39" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y39" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>858.3289888817349</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C40" t="n">
-        <v>724.2907825224202</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D40" t="n">
-        <v>558.4127897239429</v>
+        <v>443.520053268366</v>
       </c>
       <c r="E40" t="n">
-        <v>388.6547859746801</v>
+        <v>443.520053268366</v>
       </c>
       <c r="F40" t="n">
-        <v>211.9477319364363</v>
+        <v>266.8129992301223</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>477.6707703898316</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L40" t="n">
-        <v>1019.75145377609</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M40" t="n">
-        <v>1150.35584611462</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N40" t="n">
-        <v>1277.854757918509</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O40" t="n">
-        <v>1815.289888492053</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P40" t="n">
-        <v>2263.565838640078</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T40" t="n">
-        <v>2360.327577447737</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>2081.940945496479</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.98543736691</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W40" t="n">
-        <v>1522.959032953201</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.567278286614</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y40" t="n">
-        <v>1050.147607600722</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="41">
@@ -7438,19 +7438,19 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V41" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W41" t="n">
-        <v>2209.200554108492</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X41" t="n">
         <v>2209.200554108492</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117177</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810423</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>471.6552262893761</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C43" t="n">
-        <v>471.6552262893761</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D43" t="n">
-        <v>305.7772334908988</v>
+        <v>443.520053268366</v>
       </c>
       <c r="E43" t="n">
-        <v>211.9477319364363</v>
+        <v>443.520053268366</v>
       </c>
       <c r="F43" t="n">
-        <v>211.9477319364363</v>
+        <v>266.8129992301223</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895472</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H43" t="n">
         <v>47.20655154895472</v>
@@ -7572,19 +7572,19 @@
         <v>106.1122152511378</v>
       </c>
       <c r="K43" t="n">
-        <v>477.6707703898316</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>1019.75145377609</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M43" t="n">
-        <v>1160.879221014855</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N43" t="n">
-        <v>1288.378132818744</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O43" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P43" t="n">
         <v>2274.089213540313</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T43" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X43" t="n">
-        <v>890.893515694255</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y43" t="n">
-        <v>663.4738450083632</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1934.028006962828</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="C44" t="n">
-        <v>1495.885534146252</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="D44" t="n">
-        <v>1059.975749320696</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="E44" t="n">
-        <v>626.2010044789913</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="F44" t="n">
-        <v>198.3335748881991</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.406501800135</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435803</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867018</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
         <v>1131.588690455489</v>
@@ -7672,28 +7672,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447736</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>2360.327577447736</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W44" t="n">
-        <v>2360.327577447736</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X44" t="n">
-        <v>2360.327577447736</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="Y44" t="n">
-        <v>2360.327577447736</v>
+        <v>1067.259851166297</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
         <v>81.42328772043084</v>
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.0817647851411</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C46" t="n">
-        <v>547.5837284841764</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D46" t="n">
-        <v>381.705735685699</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E46" t="n">
-        <v>211.9477319364363</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F46" t="n">
-        <v>211.9477319364363</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895472</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>488.1941452900665</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>1030.274828676326</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M46" t="n">
-        <v>1160.879221014855</v>
+        <v>910.9641928553087</v>
       </c>
       <c r="N46" t="n">
-        <v>1288.378132818744</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O46" t="n">
-        <v>1825.813263392288</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P46" t="n">
         <v>2274.089213540313</v>
@@ -7830,28 +7830,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T46" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270316</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856608</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.32005419002</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041283</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
   </sheetData>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>99.93061208465426</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>86.34787278557613</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>26.45902547660924</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.2032287638515</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8616,22 +8616,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.576585170936454</v>
       </c>
       <c r="M10" t="n">
-        <v>92.44192588442525</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>93.07541273182964</v>
+        <v>93.07541273182993</v>
       </c>
       <c r="O10" t="n">
-        <v>95.0608532169874</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>98.52803488912315</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.45392869271177</v>
+        <v>104.8520877340654</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>200.7092366734153</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>177.1920849464602</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>156.7304232042866</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371569</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>141.4680432173443</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9573,10 +9573,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="P22" t="n">
-        <v>104.3008170116721</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9798,25 +9798,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>264.6463123855402</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>177.1920849464593</v>
+        <v>303.1049632594843</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>177.1920849464598</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>10.62967161639976</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>263.172203842287</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10746,22 +10746,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>10.62967161639904</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>181.022262991846</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -10995,13 +10995,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>10.62967161639926</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,22 +11220,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M43" t="n">
-        <v>10.62967161639904</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>200.7092366734148</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>156.7304232042866</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23260,19 +23260,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>102.3112812000755</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>22.12002573942885</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>145.3425294405766</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>145.3425294405756</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23509,10 +23509,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>157.6888901987942</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>72.90748610147824</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>62.46433369811443</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.91154299085231</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>113.2693808714471</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23734,16 +23734,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>318.7501536329793</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>214.5478253185804</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>114.8692533779064</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>145.3425294405766</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>73.57058162433674</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>13.074650309079</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.91154299085277</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>276.3631494550537</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>8.972606894964201</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>85.6345567208667</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>69.63569724890641</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.20332611124815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>103.0399300069053</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -24511,7 +24511,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>310.6650733564961</v>
       </c>
     </row>
     <row r="27">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>114.8692533779059</v>
+        <v>42.83502286159944</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>62.46433369811443</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>245.8919113014648</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>70.08578196157237</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>38.13827010588531</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>276.3631494550537</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>201.567237722248</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>7.54043164973146</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>2.393603578158974</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>13.11437420552872</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.0937685836068</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>60.03778590972593</v>
+        <v>100.0994919970777</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>107.1269275599053</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>113.743809091021</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>285.9536173888166</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>70.82120888786659</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>38.13827010588577</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>76.70400539372817</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
@@ -25690,10 +25690,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>251.1911469372252</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>305.3969917679815</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>75.16921717285227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>76.70400539372817</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>76.26798902256155</v>
       </c>
       <c r="G44" t="n">
-        <v>245.8919113014657</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>103.0230384636523</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>61.0381553670675</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>636229.8225999147</v>
+        <v>636229.8225999149</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>386584.2557292078</v>
+        <v>386584.2557292077</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>386584.2557292077</v>
+        <v>386584.2557292076</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>386584.2557292077</v>
+        <v>386584.2557292076</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>386584.2557292075</v>
+        <v>386584.2557292077</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>386584.2557292076</v>
+        <v>386584.2557292077</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>300946.1639116303</v>
+        <v>300946.1639116302</v>
       </c>
       <c r="C2" t="n">
         <v>300946.1639116302</v>
@@ -26322,13 +26322,13 @@
         <v>308284.7089369848</v>
       </c>
       <c r="E2" t="n">
-        <v>180892.2069959399</v>
+        <v>180892.20699594</v>
       </c>
       <c r="F2" t="n">
         <v>180892.2069959399</v>
       </c>
       <c r="G2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959399</v>
       </c>
       <c r="H2" t="n">
         <v>180892.2069959399</v>
@@ -26340,16 +26340,16 @@
         <v>180892.2069959399</v>
       </c>
       <c r="K2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959399</v>
       </c>
       <c r="L2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959399</v>
       </c>
       <c r="M2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959399</v>
       </c>
       <c r="N2" t="n">
-        <v>180892.20699594</v>
+        <v>180892.2069959399</v>
       </c>
       <c r="O2" t="n">
         <v>180892.2069959399</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730575</v>
+        <v>117708.4675730578</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180447</v>
+        <v>439858.2450180443</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310187</v>
+        <v>30139.06600310197</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597481</v>
+        <v>117374.581559748</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>272770.9508674337</v>
+        <v>272770.9508674336</v>
       </c>
       <c r="E4" t="n">
-        <v>17402.73254778061</v>
+        <v>17402.73254778062</v>
       </c>
       <c r="F4" t="n">
         <v>17402.73254778062</v>
       </c>
       <c r="G4" t="n">
-        <v>17402.73254778061</v>
+        <v>17402.73254778062</v>
       </c>
       <c r="H4" t="n">
         <v>17402.73254778061</v>
       </c>
       <c r="I4" t="n">
-        <v>17402.73254778062</v>
+        <v>17402.7325477806</v>
       </c>
       <c r="J4" t="n">
         <v>17402.73254778061</v>
       </c>
       <c r="K4" t="n">
-        <v>17402.73254778062</v>
+        <v>17402.7325477806</v>
       </c>
       <c r="L4" t="n">
         <v>17402.73254778061</v>
@@ -26459,7 +26459,7 @@
         <v>17402.7325477806</v>
       </c>
       <c r="P4" t="n">
-        <v>17402.7325477806</v>
+        <v>17402.73254778061</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239233</v>
+        <v>42922.56227239237</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
         <v>46051.08120963781</v>
@@ -26490,19 +26490,19 @@
         <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31412.15240020253</v>
+        <v>-31444.0591177042</v>
       </c>
       <c r="C6" t="n">
-        <v>-31412.15240020258</v>
+        <v>-31444.0591177042</v>
       </c>
       <c r="D6" t="n">
-        <v>-125117.2717758987</v>
+        <v>-125117.271775899</v>
       </c>
       <c r="E6" t="n">
-        <v>-322419.8517795232</v>
+        <v>-322973.7322227447</v>
       </c>
       <c r="F6" t="n">
-        <v>117438.3932385215</v>
+        <v>116884.5127952995</v>
       </c>
       <c r="G6" t="n">
-        <v>117438.3932385215</v>
+        <v>116884.5127952996</v>
       </c>
       <c r="H6" t="n">
-        <v>117438.3932385215</v>
+        <v>116884.5127952995</v>
       </c>
       <c r="I6" t="n">
-        <v>117438.3932385215</v>
+        <v>116884.5127952995</v>
       </c>
       <c r="J6" t="n">
-        <v>117438.3932385215</v>
+        <v>116884.5127952995</v>
       </c>
       <c r="K6" t="n">
-        <v>117438.3932385215</v>
+        <v>116884.5127952995</v>
       </c>
       <c r="L6" t="n">
-        <v>87299.32723541964</v>
+        <v>86745.44679219757</v>
       </c>
       <c r="M6" t="n">
-        <v>63.8116787733743</v>
+        <v>-490.0687644484366</v>
       </c>
       <c r="N6" t="n">
-        <v>117438.3932385215</v>
+        <v>116884.5127952995</v>
       </c>
       <c r="O6" t="n">
-        <v>117438.3932385215</v>
+        <v>116884.5127952995</v>
       </c>
       <c r="P6" t="n">
-        <v>117438.3932385215</v>
+        <v>116884.5127952995</v>
       </c>
     </row>
   </sheetData>
@@ -26743,37 +26743,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480442</v>
+        <v>94.25048217480472</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
         <v>466.7019280932211</v>
@@ -26795,43 +26795,43 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424605</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="I4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="J4" t="n">
         <v>590.0818943619341</v>
       </c>
-      <c r="I4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="J4" t="n">
-        <v>590.0818943619342</v>
-      </c>
       <c r="K4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="O4" t="n">
         <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480442</v>
+        <v>94.25048217480472</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184169</v>
+        <v>372.4514459184164</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424605</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194737</v>
+        <v>470.9979838194732</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424605</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194737</v>
+        <v>470.9979838194732</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424605</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194737</v>
+        <v>470.9979838194732</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>386.1478426585901</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27861,10 +27861,10 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>331.3520823721643</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>304.5048447524234</v>
       </c>
       <c r="G8" t="n">
         <v>397.0049566522158</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796777</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.2079358176206</v>
@@ -27915,13 +27915,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>281.7229895006165</v>
+        <v>281.7229895006161</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>285.1193519208826</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -27943,13 +27943,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
         <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
-        <v>39.36037526809192</v>
+        <v>39.36037526809191</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656965</v>
+        <v>59.05530966656964</v>
       </c>
       <c r="T9" t="n">
         <v>128.0597233353587</v>
@@ -27991,13 +27991,13 @@
         <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>78.04243221615975</v>
       </c>
       <c r="W9" t="n">
         <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>66.43841441328023</v>
+        <v>102.9723249557397</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -28022,7 +28022,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>166.2746961056538</v>
       </c>
       <c r="G10" t="n">
         <v>163.7654023385416</v>
@@ -28031,7 +28031,7 @@
         <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742792</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,22 +28064,22 @@
         <v>154.6870177308997</v>
       </c>
       <c r="T10" t="n">
-        <v>123.6105491751613</v>
+        <v>123.6105491751609</v>
       </c>
       <c r="U10" t="n">
-        <v>156.5554896577349</v>
+        <v>275.6394002001954</v>
       </c>
       <c r="V10" t="n">
-        <v>165.0020425058133</v>
+        <v>165.0020425058129</v>
       </c>
       <c r="W10" t="n">
-        <v>177.9786605399363</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>106.0615634365719</v>
       </c>
     </row>
     <row r="11">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529823</v>
+        <v>0.3788964107529835</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866623981</v>
+        <v>3.880372866623993</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555436</v>
+        <v>14.60740387555441</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214596</v>
+        <v>32.15835924214606</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931971</v>
+        <v>48.19704430931986</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990131</v>
+        <v>59.79269533990149</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462965</v>
+        <v>66.53089438462986</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168157</v>
+        <v>67.60743381168179</v>
       </c>
       <c r="O8" t="n">
-        <v>63.8397826272566</v>
+        <v>63.8397826272568</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679234</v>
+        <v>54.48577748679251</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670115</v>
+        <v>40.91654977670127</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196205</v>
+        <v>23.80085166196212</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033593</v>
+        <v>8.63410196003362</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071181</v>
+        <v>1.658619038071186</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023858</v>
+        <v>0.03031171286023867</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.202727452225051</v>
+        <v>0.2027274522250517</v>
       </c>
       <c r="H9" t="n">
-        <v>1.95792039385773</v>
+        <v>1.957920393857736</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888819</v>
+        <v>6.979870613888841</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780625</v>
+        <v>19.15329845780631</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688466</v>
+        <v>32.73603775688477</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211031</v>
+        <v>44.01764264211045</v>
       </c>
       <c r="M9" t="n">
-        <v>51.3665127852684</v>
+        <v>51.36651278526856</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286536</v>
+        <v>52.72603153286552</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619448</v>
+        <v>48.23401798619464</v>
       </c>
       <c r="P9" t="n">
-        <v>38.7120518200626</v>
+        <v>38.71205182006272</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542932</v>
+        <v>25.8779814454294</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779747</v>
+        <v>12.58688514779751</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531098</v>
+        <v>3.76557350953111</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457097</v>
+        <v>0.8171338973457123</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322705</v>
+        <v>0.01333733238322709</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889916</v>
+        <v>0.1699598858889921</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540308</v>
+        <v>1.511097894540313</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643493</v>
+        <v>5.111157295643509</v>
       </c>
       <c r="J10" t="n">
-        <v>12.0161639323517</v>
+        <v>12.01616393235174</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055738</v>
+        <v>19.74624856055744</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207789</v>
+        <v>25.26839976207797</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803528</v>
+        <v>26.64198465803537</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063088</v>
+        <v>26.00849781063096</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547311</v>
+        <v>24.02305732547318</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333766</v>
+        <v>20.55587565333773</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839547</v>
+        <v>14.23182280839551</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517746</v>
+        <v>7.64201450551777</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083606</v>
+        <v>2.961937284083616</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075092</v>
+        <v>0.7261922397075115</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308641</v>
+        <v>0.009270539230308671</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,31 +31755,31 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H11" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699062</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31788,10 +31788,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J13" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998885</v>
@@ -31940,19 +31940,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R13" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32025,10 +32025,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998885</v>
@@ -32177,19 +32177,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32642,28 +32642,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,28 +32782,28 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -32812,16 +32812,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32879,28 +32879,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32973,10 +32973,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,46 +33019,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S27" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
         <v>128.7867795998885</v>
@@ -33125,19 +33125,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R28" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33353,28 +33353,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33590,28 +33590,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33827,28 +33827,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34064,28 +34064,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
         <v>42.75364899065037</v>
@@ -34231,7 +34231,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
         <v>62.32672164233623</v>
@@ -34447,7 +34447,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642297</v>
+        <v>14.19478239642301</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214596</v>
+        <v>32.15835924214606</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931971</v>
+        <v>48.19704430931986</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990131</v>
+        <v>59.79269533990148</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462965</v>
+        <v>66.53089438462985</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168157</v>
+        <v>67.6074338116818</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725657</v>
+        <v>63.8397826272568</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679236</v>
+        <v>54.48577748679253</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670112</v>
+        <v>40.91654977670129</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196204</v>
+        <v>23.8008516619621</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888819</v>
+        <v>33.30681320020965</v>
       </c>
       <c r="J9" t="n">
-        <v>119.0839105424605</v>
+        <v>19.15329845780631</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688466</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="L9" t="n">
-        <v>44.0176426421103</v>
+        <v>70.47666811871969</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526838</v>
+        <v>51.36651278526855</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286536</v>
+        <v>52.72603153286553</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619449</v>
+        <v>48.23401798619466</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006258</v>
+        <v>38.7120518200627</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542933</v>
+        <v>25.87798144542938</v>
       </c>
       <c r="R9" t="n">
-        <v>51.79011391164897</v>
+        <v>12.58688514779749</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12.0161639323517</v>
+        <v>12.01616393235174</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055738</v>
+        <v>19.74624856055744</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207789</v>
+        <v>31.84498493301443</v>
       </c>
       <c r="M10" t="n">
-        <v>119.0839105424605</v>
+        <v>26.64198465803537</v>
       </c>
       <c r="N10" t="n">
-        <v>119.0839105424605</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="O10" t="n">
-        <v>119.0839105424605</v>
+        <v>24.02305732547319</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333764</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.68575150110723</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.658232706284</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816035</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415856</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811314</v>
@@ -35506,7 +35506,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
-        <v>298.4871160345853</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561045</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35737,7 +35737,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
@@ -35813,7 +35813,7 @@
         <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712374</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
@@ -35880,28 +35880,28 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>281.8524450409512</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561043</v>
+        <v>260.4234789221541</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,16 +36117,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
@@ -36138,7 +36138,7 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.9630089646689</v>
@@ -36217,13 +36217,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36293,16 +36293,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>296.1475206512691</v>
       </c>
       <c r="P22" t="n">
-        <v>206.0877424436756</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,16 +36354,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36372,10 +36372,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -36460,7 +36460,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233645</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L25" t="n">
-        <v>547.556245844706</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O25" t="n">
-        <v>383.6017480903502</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,19 +36591,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816035</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N27" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>296.1475206512694</v>
+        <v>422.0603989642941</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125707</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
         <v>117.855135640546</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36928,7 +36928,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572664</v>
+        <v>254.508302565456</v>
       </c>
       <c r="L31" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M31" t="n">
-        <v>309.1157135712369</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O31" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,19 +37065,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125707</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37086,7 +37086,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>70.13034202264535</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K34" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>388.2942256789515</v>
       </c>
       <c r="M34" t="n">
         <v>131.9236286247772</v>
@@ -37247,10 +37247,10 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,28 +37302,28 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>547.5562458447062</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>139.4164512162874</v>
       </c>
       <c r="O37" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>282.8091884238495</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,10 +37539,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
@@ -37551,13 +37551,13 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
         <v>269.7982739184533</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
         <v>217.9630089646689</v>
@@ -37642,10 +37642,10 @@
         <v>191.6912126917234</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K40" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>547.5562458447059</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247772</v>
@@ -37715,16 +37715,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561043</v>
+        <v>296.1475206512691</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.10166275847587</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916794</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562336</v>
@@ -37864,7 +37864,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37873,16 +37873,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917234</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
-        <v>547.5562458447059</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M43" t="n">
-        <v>142.5533002411762</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561043</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
         <v>70.4719911420766</v>
@@ -38016,13 +38016,13 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M44" t="n">
         <v>329.442311281603</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>298.4871160345847</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O46" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485103</v>
+        <v>258.5173486362901</v>
       </c>
       <c r="Q46" t="n">
         <v>70.4719911420766</v>
